--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_3BO_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_3BO_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1215" windowWidth="20115" windowHeight="6855" tabRatio="879" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="1215" windowWidth="20115" windowHeight="6855" tabRatio="879" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -31353,51 +31353,10 @@
     <t>กรณี เพิ่งเปิดใช้งานเบอร์โทรศัพท์เป็นเวลา 1 เดือน</t>
   </si>
   <si>
-    <t>1. Login My AIS 
-2. Click menu "Balance &amp; Usage Detail"
-3. Click "Your Balance History"
-4. Verify "Your Balance History"
-5. Verify 
-- Billing Cycle
-- Total
-- View Statement
-- รายการรอบบิลย้อนหลัง 1 เดือน (เช็คว่ามีครบ 1 รายการ)
-- Click to view details of statement
-- Your statement will be available for viewing 8 days after the end date of your billing cycle.
-- "Payment" button
-6. Capture Screen</t>
-  </si>
-  <si>
     <t>กรณี เบอร์ที่เปิดใช้งานเกิน 3 เดือน</t>
   </si>
   <si>
-    <t>1. Login My AIS 
-2. Click menu "Balance &amp; Usage Detail"
-3. Click "Your Balance History"
-4. Verify "Your Balance History"
-5. Verify 
-- Billing Cycle
-- Total
-- View Statement
-- รายการรอบบิลย้อนหลัง 3 เดือน (เช็คว่ามีครบ 3 รายการ)
-- Click to view details of statement
-- Your statement will be available for viewing 8 days after the end date of your billing cycle.
-- "Payment" button
-6. Capture Screen</t>
-  </si>
-  <si>
     <t>กรณี ดูใบแจ้งค่าใช้บริการ</t>
-  </si>
-  <si>
-    <t>1. Login My AIS 
-2. Click menu "Balance &amp; Usage Detail"
-3. Click "Your Balance History"
-4. Verify "Your Balance History"
-5. Click แว่นขยาย
-6. Verify "ใบแจ้งค่าใช้บริการ"
-- ใบแจ้งค่าใช้บริการ (STATEMENT)
-- Logo AIS
-7. Capture Screen</t>
   </si>
   <si>
     <t>ตรวจสอบหน้า "เช็คยอดค่าโทร"</t>
@@ -31582,6 +31541,53 @@
       </rPr>
       <t xml:space="preserve"> Active</t>
     </r>
+  </si>
+  <si>
+    <t>1. Login My AIS 
+2. Click menu "Balance &amp; Usage Detail"
+3. Click "Your Balance History"
+4. Enter your "ID Card"
+5. Click "OK"
+6. Verify "Your Balance History"
+7. Verify 
+- Billing Cycle
+- Total
+- View Statement
+- รายการรอบบิลย้อนหลัง 1 เดือน (เช็คว่ามีครบ 1 รายการ)
+- Click to view details of statement
+- Your statement will be available for viewing 8 days after the end date of your billing cycle.
+- "Payment" button
+8. Capture Screen</t>
+  </si>
+  <si>
+    <t>1. Login My AIS 
+2. Click menu "Balance &amp; Usage Detail"
+3. Click "Your Balance History"
+4. Verify "Your Balance History"
+5. Enter your "ID Card"
+6. Click "OK"
+7. Verify 
+- Billing Cycle
+- Total
+- View Statement
+- รายการรอบบิลย้อนหลัง 3 เดือน (เช็คว่ามีครบ 3 รายการ)
+- Click to view details of statement
+- Your statement will be available for viewing 8 days after the end date of your billing cycle.
+- "Payment" button
+8. Capture Screen</t>
+  </si>
+  <si>
+    <t>1. Login My AIS 
+2. Click menu "Balance &amp; Usage Detail"
+3. Click "Your Balance History"
+4. Verify "Your Balance History"
+5. Enter your "ID Card"
+6. Click "OK"
+7. Click แว่นขยาย
+8. Verify "ใบแจ้งค่าใช้บริการ"
+- ใบแจ้งค่าใช้บริการ (STATEMENT)
+- Logo AIS
+9. Capture Screen</t>
   </si>
 </sst>
 </file>
@@ -34498,6 +34504,155 @@
     <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="34" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -34579,22 +34734,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -34607,118 +34746,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34732,11 +34777,29 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34765,25 +34828,58 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -34795,15 +34891,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -34813,11 +34900,18 @@
     <xf numFmtId="0" fontId="22" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="22" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -34826,7 +34920,6 @@
     <xf numFmtId="0" fontId="50" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -34834,13 +34927,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="47" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -34856,87 +34943,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="34" borderId="5" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -41151,25 +41157,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="537" t="s">
+      <c r="C5" s="536" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="538"/>
-      <c r="E5" s="539"/>
+      <c r="D5" s="537"/>
+      <c r="E5" s="538"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="535"/>
-      <c r="I5" s="535"/>
-      <c r="J5" s="535"/>
+      <c r="H5" s="528"/>
+      <c r="I5" s="528"/>
+      <c r="J5" s="528"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="511"/>
-      <c r="D6" s="512"/>
-      <c r="E6" s="513"/>
+      <c r="C6" s="558"/>
+      <c r="D6" s="559"/>
+      <c r="E6" s="560"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -41179,23 +41185,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="540"/>
-      <c r="D7" s="541"/>
-      <c r="E7" s="542"/>
+      <c r="C7" s="539"/>
+      <c r="D7" s="540"/>
+      <c r="E7" s="541"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="535"/>
-      <c r="I7" s="535"/>
-      <c r="J7" s="535"/>
+      <c r="H7" s="528"/>
+      <c r="I7" s="528"/>
+      <c r="J7" s="528"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="543" t="s">
+      <c r="C8" s="542" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="544"/>
-      <c r="E8" s="545"/>
+      <c r="D8" s="543"/>
+      <c r="E8" s="544"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -41222,54 +41228,54 @@
         <v>9</v>
       </c>
       <c r="C11" s="530"/>
-      <c r="D11" s="536"/>
-      <c r="E11" s="536"/>
-      <c r="F11" s="531"/>
+      <c r="D11" s="531"/>
+      <c r="E11" s="531"/>
+      <c r="F11" s="532"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="522"/>
-      <c r="D12" s="524"/>
-      <c r="E12" s="524"/>
-      <c r="F12" s="525"/>
+      <c r="C12" s="533"/>
+      <c r="D12" s="534"/>
+      <c r="E12" s="534"/>
+      <c r="F12" s="535"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="522"/>
-      <c r="D13" s="524"/>
-      <c r="E13" s="524"/>
-      <c r="F13" s="525"/>
+      <c r="C13" s="533"/>
+      <c r="D13" s="534"/>
+      <c r="E13" s="534"/>
+      <c r="F13" s="535"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="522"/>
-      <c r="D14" s="524"/>
-      <c r="E14" s="524"/>
-      <c r="F14" s="525"/>
+      <c r="C14" s="533"/>
+      <c r="D14" s="534"/>
+      <c r="E14" s="534"/>
+      <c r="F14" s="535"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="522"/>
-      <c r="D15" s="524"/>
-      <c r="E15" s="524"/>
-      <c r="F15" s="525"/>
+      <c r="C15" s="533"/>
+      <c r="D15" s="534"/>
+      <c r="E15" s="534"/>
+      <c r="F15" s="535"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="526"/>
-      <c r="D16" s="527"/>
-      <c r="E16" s="527"/>
-      <c r="F16" s="528"/>
+      <c r="C16" s="569"/>
+      <c r="D16" s="570"/>
+      <c r="E16" s="570"/>
+      <c r="F16" s="571"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -41285,7 +41291,7 @@
       <c r="C18" s="530"/>
       <c r="D18" s="530"/>
       <c r="E18" s="530"/>
-      <c r="F18" s="531"/>
+      <c r="F18" s="532"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -41297,10 +41303,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="517" t="s">
+      <c r="E19" s="564" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="532"/>
+      <c r="F19" s="572"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -41312,10 +41318,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="522" t="s">
+      <c r="E20" s="533" t="s">
         <v>246</v>
       </c>
-      <c r="F20" s="523"/>
+      <c r="F20" s="545"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -41325,10 +41331,10 @@
         <v>464</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="522" t="s">
+      <c r="E21" s="533" t="s">
         <v>478</v>
       </c>
-      <c r="F21" s="523"/>
+      <c r="F21" s="545"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -41338,10 +41344,10 @@
         <v>479</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="522" t="s">
+      <c r="E22" s="533" t="s">
         <v>480</v>
       </c>
-      <c r="F22" s="523"/>
+      <c r="F22" s="545"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -41351,52 +41357,52 @@
         <v>502</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="522" t="s">
+      <c r="E23" s="533" t="s">
         <v>503</v>
       </c>
-      <c r="F23" s="523"/>
+      <c r="F23" s="545"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="522"/>
-      <c r="F24" s="523"/>
+      <c r="E24" s="533"/>
+      <c r="F24" s="545"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="522"/>
-      <c r="F25" s="523"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="545"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="522"/>
-      <c r="F26" s="523"/>
+      <c r="E26" s="533"/>
+      <c r="F26" s="545"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="522"/>
-      <c r="F27" s="523"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="545"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="522"/>
-      <c r="F28" s="523"/>
+      <c r="E28" s="533"/>
+      <c r="F28" s="545"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="533"/>
-      <c r="F29" s="534"/>
+      <c r="E29" s="546"/>
+      <c r="F29" s="547"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -41406,23 +41412,23 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="514" t="s">
+      <c r="B31" s="561" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="515"/>
-      <c r="D31" s="515"/>
-      <c r="E31" s="516"/>
+      <c r="C31" s="562"/>
+      <c r="D31" s="562"/>
+      <c r="E31" s="563"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="517" t="s">
+      <c r="C32" s="564" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="518"/>
-      <c r="E32" s="518"/>
+      <c r="D32" s="565"/>
+      <c r="E32" s="565"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
@@ -41431,46 +41437,46 @@
       <c r="B33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="503" t="s">
+      <c r="C33" s="550" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="504"/>
-      <c r="E33" s="504"/>
+      <c r="D33" s="551"/>
+      <c r="E33" s="551"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="519"/>
-      <c r="D34" s="520"/>
-      <c r="E34" s="521"/>
+      <c r="C34" s="566"/>
+      <c r="D34" s="567"/>
+      <c r="E34" s="568"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="501"/>
-      <c r="D35" s="502"/>
-      <c r="E35" s="502"/>
+      <c r="C35" s="548"/>
+      <c r="D35" s="549"/>
+      <c r="E35" s="549"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="503"/>
-      <c r="D36" s="504"/>
-      <c r="E36" s="504"/>
+      <c r="C36" s="550"/>
+      <c r="D36" s="551"/>
+      <c r="E36" s="551"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="505"/>
-      <c r="D37" s="506"/>
-      <c r="E37" s="507"/>
+      <c r="C37" s="552"/>
+      <c r="D37" s="553"/>
+      <c r="E37" s="554"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="508"/>
-      <c r="D38" s="509"/>
-      <c r="E38" s="510"/>
+      <c r="C38" s="555"/>
+      <c r="D38" s="556"/>
+      <c r="E38" s="557"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41496,22 +41502,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -41528,6 +41518,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41594,19 +41600,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="593" t="s">
+      <c r="A2" s="620" t="s">
         <v>1259</v>
       </c>
-      <c r="B2" s="594"/>
-      <c r="C2" s="594"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="594"/>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="594"/>
-      <c r="I2" s="594"/>
-      <c r="J2" s="594"/>
-      <c r="K2" s="595"/>
+      <c r="B2" s="621"/>
+      <c r="C2" s="621"/>
+      <c r="D2" s="621"/>
+      <c r="E2" s="621"/>
+      <c r="F2" s="621"/>
+      <c r="G2" s="621"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="621"/>
+      <c r="J2" s="621"/>
+      <c r="K2" s="622"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="341" t="s">
@@ -42836,19 +42842,19 @@
       <c r="K62" s="457"/>
     </row>
     <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="593" t="s">
+      <c r="A63" s="620" t="s">
         <v>1359</v>
       </c>
-      <c r="B63" s="594"/>
-      <c r="C63" s="594"/>
-      <c r="D63" s="594"/>
-      <c r="E63" s="594"/>
-      <c r="F63" s="594"/>
-      <c r="G63" s="594"/>
-      <c r="H63" s="594"/>
-      <c r="I63" s="594"/>
-      <c r="J63" s="594"/>
-      <c r="K63" s="595"/>
+      <c r="B63" s="621"/>
+      <c r="C63" s="621"/>
+      <c r="D63" s="621"/>
+      <c r="E63" s="621"/>
+      <c r="F63" s="621"/>
+      <c r="G63" s="621"/>
+      <c r="H63" s="621"/>
+      <c r="I63" s="621"/>
+      <c r="J63" s="621"/>
+      <c r="K63" s="622"/>
     </row>
     <row r="64" spans="1:11" s="327" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="341" t="s">
@@ -46803,98 +46809,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="635" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="606" t="s">
+      <c r="B1" s="623" t="s">
         <v>706</v>
       </c>
-      <c r="C1" s="606" t="s">
+      <c r="C1" s="623" t="s">
         <v>707</v>
       </c>
-      <c r="D1" s="606" t="s">
+      <c r="D1" s="623" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="606" t="s">
+      <c r="E1" s="623" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="606" t="s">
+      <c r="F1" s="623" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="606" t="s">
+      <c r="G1" s="623" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="606" t="s">
+      <c r="H1" s="623" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="606" t="s">
+      <c r="I1" s="623" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="606" t="s">
+      <c r="J1" s="623" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="606" t="s">
+      <c r="K1" s="623" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="606" t="s">
+      <c r="L1" s="623" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="602" t="s">
+      <c r="M1" s="632" t="s">
         <v>708</v>
       </c>
-      <c r="N1" s="604" t="s">
+      <c r="N1" s="633" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="603"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="603"/>
-      <c r="F2" s="603"/>
-      <c r="G2" s="603"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="603"/>
-      <c r="J2" s="603"/>
-      <c r="K2" s="603"/>
-      <c r="L2" s="603"/>
-      <c r="M2" s="603"/>
-      <c r="N2" s="598"/>
+      <c r="A2" s="624"/>
+      <c r="B2" s="624"/>
+      <c r="C2" s="624"/>
+      <c r="D2" s="624"/>
+      <c r="E2" s="624"/>
+      <c r="F2" s="624"/>
+      <c r="G2" s="624"/>
+      <c r="H2" s="624"/>
+      <c r="I2" s="624"/>
+      <c r="J2" s="624"/>
+      <c r="K2" s="624"/>
+      <c r="L2" s="624"/>
+      <c r="M2" s="624"/>
+      <c r="N2" s="627"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="599" t="s">
+      <c r="A3" s="629" t="s">
         <v>710</v>
       </c>
-      <c r="B3" s="600"/>
-      <c r="C3" s="600"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="600"/>
-      <c r="F3" s="600"/>
-      <c r="G3" s="600"/>
-      <c r="H3" s="600"/>
-      <c r="I3" s="600"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="B3" s="630"/>
+      <c r="C3" s="630"/>
+      <c r="D3" s="630"/>
+      <c r="E3" s="630"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="630"/>
+      <c r="H3" s="630"/>
+      <c r="I3" s="630"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="185"/>
       <c r="N3" s="186"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="605" t="s">
+      <c r="A4" s="634" t="s">
         <v>711</v>
       </c>
-      <c r="B4" s="600"/>
-      <c r="C4" s="600"/>
-      <c r="D4" s="600"/>
-      <c r="E4" s="600"/>
-      <c r="F4" s="600"/>
-      <c r="G4" s="600"/>
-      <c r="H4" s="600"/>
-      <c r="I4" s="600"/>
-      <c r="J4" s="600"/>
-      <c r="K4" s="600"/>
-      <c r="L4" s="601"/>
+      <c r="B4" s="630"/>
+      <c r="C4" s="630"/>
+      <c r="D4" s="630"/>
+      <c r="E4" s="630"/>
+      <c r="F4" s="630"/>
+      <c r="G4" s="630"/>
+      <c r="H4" s="630"/>
+      <c r="I4" s="630"/>
+      <c r="J4" s="630"/>
+      <c r="K4" s="630"/>
+      <c r="L4" s="631"/>
       <c r="M4" s="187"/>
       <c r="N4" s="188"/>
     </row>
@@ -47066,20 +47072,20 @@
       <c r="N10" s="218"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="599" t="s">
+      <c r="A11" s="629" t="s">
         <v>733</v>
       </c>
-      <c r="B11" s="597"/>
-      <c r="C11" s="597"/>
-      <c r="D11" s="600"/>
-      <c r="E11" s="597"/>
-      <c r="F11" s="600"/>
-      <c r="G11" s="600"/>
-      <c r="H11" s="600"/>
-      <c r="I11" s="600"/>
-      <c r="J11" s="600"/>
-      <c r="K11" s="600"/>
-      <c r="L11" s="601"/>
+      <c r="B11" s="626"/>
+      <c r="C11" s="626"/>
+      <c r="D11" s="630"/>
+      <c r="E11" s="626"/>
+      <c r="F11" s="630"/>
+      <c r="G11" s="630"/>
+      <c r="H11" s="630"/>
+      <c r="I11" s="630"/>
+      <c r="J11" s="630"/>
+      <c r="K11" s="630"/>
+      <c r="L11" s="631"/>
       <c r="M11" s="185"/>
       <c r="N11" s="185"/>
     </row>
@@ -47140,20 +47146,20 @@
       <c r="N13" s="230"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="599" t="s">
+      <c r="A14" s="629" t="s">
         <v>741</v>
       </c>
-      <c r="B14" s="600"/>
-      <c r="C14" s="600"/>
-      <c r="D14" s="600"/>
-      <c r="E14" s="600"/>
-      <c r="F14" s="600"/>
-      <c r="G14" s="600"/>
-      <c r="H14" s="600"/>
-      <c r="I14" s="600"/>
-      <c r="J14" s="600"/>
-      <c r="K14" s="600"/>
-      <c r="L14" s="601"/>
+      <c r="B14" s="630"/>
+      <c r="C14" s="630"/>
+      <c r="D14" s="630"/>
+      <c r="E14" s="630"/>
+      <c r="F14" s="630"/>
+      <c r="G14" s="630"/>
+      <c r="H14" s="630"/>
+      <c r="I14" s="630"/>
+      <c r="J14" s="630"/>
+      <c r="K14" s="630"/>
+      <c r="L14" s="631"/>
       <c r="M14" s="229"/>
       <c r="N14" s="230"/>
     </row>
@@ -47214,20 +47220,20 @@
       <c r="N16" s="238"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="608" t="s">
+      <c r="A17" s="625" t="s">
         <v>747</v>
       </c>
-      <c r="B17" s="597"/>
-      <c r="C17" s="597"/>
-      <c r="D17" s="597"/>
-      <c r="E17" s="597"/>
-      <c r="F17" s="597"/>
-      <c r="G17" s="597"/>
-      <c r="H17" s="597"/>
-      <c r="I17" s="597"/>
-      <c r="J17" s="597"/>
-      <c r="K17" s="597"/>
-      <c r="L17" s="598"/>
+      <c r="B17" s="626"/>
+      <c r="C17" s="626"/>
+      <c r="D17" s="626"/>
+      <c r="E17" s="626"/>
+      <c r="F17" s="626"/>
+      <c r="G17" s="626"/>
+      <c r="H17" s="626"/>
+      <c r="I17" s="626"/>
+      <c r="J17" s="626"/>
+      <c r="K17" s="626"/>
+      <c r="L17" s="627"/>
       <c r="M17" s="239"/>
       <c r="N17" s="240"/>
     </row>
@@ -47544,20 +47550,20 @@
       <c r="N30" s="277"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="596" t="s">
+      <c r="A31" s="628" t="s">
         <v>785</v>
       </c>
-      <c r="B31" s="597"/>
-      <c r="C31" s="597"/>
-      <c r="D31" s="597"/>
-      <c r="E31" s="597"/>
-      <c r="F31" s="597"/>
-      <c r="G31" s="597"/>
-      <c r="H31" s="597"/>
-      <c r="I31" s="597"/>
-      <c r="J31" s="597"/>
-      <c r="K31" s="597"/>
-      <c r="L31" s="598"/>
+      <c r="B31" s="626"/>
+      <c r="C31" s="626"/>
+      <c r="D31" s="626"/>
+      <c r="E31" s="626"/>
+      <c r="F31" s="626"/>
+      <c r="G31" s="626"/>
+      <c r="H31" s="626"/>
+      <c r="I31" s="626"/>
+      <c r="J31" s="626"/>
+      <c r="K31" s="626"/>
+      <c r="L31" s="627"/>
       <c r="M31" s="278"/>
       <c r="N31" s="278"/>
     </row>
@@ -62021,12 +62027,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
@@ -62041,6 +62041,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -62051,8 +62057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -62628,20 +62634,20 @@
       <c r="L24" s="326"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="610" t="s">
+      <c r="A25" s="637" t="s">
         <v>1002</v>
       </c>
-      <c r="B25" s="611"/>
-      <c r="C25" s="611"/>
-      <c r="D25" s="611"/>
-      <c r="E25" s="611"/>
-      <c r="F25" s="611"/>
-      <c r="G25" s="611"/>
-      <c r="H25" s="611"/>
-      <c r="I25" s="611"/>
-      <c r="J25" s="611"/>
-      <c r="K25" s="611"/>
-      <c r="L25" s="612"/>
+      <c r="B25" s="638"/>
+      <c r="C25" s="638"/>
+      <c r="D25" s="638"/>
+      <c r="E25" s="638"/>
+      <c r="F25" s="638"/>
+      <c r="G25" s="638"/>
+      <c r="H25" s="638"/>
+      <c r="I25" s="638"/>
+      <c r="J25" s="638"/>
+      <c r="K25" s="638"/>
+      <c r="L25" s="639"/>
     </row>
     <row r="26" spans="1:12" s="316" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="77" t="s">
@@ -63196,20 +63202,20 @@
       <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="613" t="s">
+      <c r="A50" s="640" t="s">
         <v>1063</v>
       </c>
-      <c r="B50" s="613"/>
-      <c r="C50" s="613"/>
-      <c r="D50" s="613"/>
-      <c r="E50" s="613"/>
-      <c r="F50" s="613"/>
-      <c r="G50" s="613"/>
-      <c r="H50" s="613"/>
-      <c r="I50" s="613"/>
-      <c r="J50" s="613"/>
-      <c r="K50" s="613"/>
-      <c r="L50" s="613"/>
+      <c r="B50" s="640"/>
+      <c r="C50" s="640"/>
+      <c r="D50" s="640"/>
+      <c r="E50" s="640"/>
+      <c r="F50" s="640"/>
+      <c r="G50" s="640"/>
+      <c r="H50" s="640"/>
+      <c r="I50" s="640"/>
+      <c r="J50" s="640"/>
+      <c r="K50" s="640"/>
+      <c r="L50" s="640"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="77" t="s">
@@ -63260,20 +63266,20 @@
       <c r="L52" s="66"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="613" t="s">
+      <c r="A53" s="640" t="s">
         <v>1068</v>
       </c>
-      <c r="B53" s="613"/>
-      <c r="C53" s="613"/>
-      <c r="D53" s="613"/>
-      <c r="E53" s="613"/>
-      <c r="F53" s="613"/>
-      <c r="G53" s="613"/>
-      <c r="H53" s="613"/>
-      <c r="I53" s="613"/>
-      <c r="J53" s="613"/>
-      <c r="K53" s="613"/>
-      <c r="L53" s="613"/>
+      <c r="B53" s="640"/>
+      <c r="C53" s="640"/>
+      <c r="D53" s="640"/>
+      <c r="E53" s="640"/>
+      <c r="F53" s="640"/>
+      <c r="G53" s="640"/>
+      <c r="H53" s="640"/>
+      <c r="I53" s="640"/>
+      <c r="J53" s="640"/>
+      <c r="K53" s="640"/>
+      <c r="L53" s="640"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="77" t="s">
@@ -63324,20 +63330,20 @@
       <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="613" t="s">
+      <c r="A56" s="640" t="s">
         <v>1074</v>
       </c>
-      <c r="B56" s="613"/>
-      <c r="C56" s="613"/>
-      <c r="D56" s="613"/>
-      <c r="E56" s="613"/>
-      <c r="F56" s="613"/>
-      <c r="G56" s="613"/>
-      <c r="H56" s="613"/>
-      <c r="I56" s="613"/>
-      <c r="J56" s="613"/>
-      <c r="K56" s="613"/>
-      <c r="L56" s="613"/>
+      <c r="B56" s="640"/>
+      <c r="C56" s="640"/>
+      <c r="D56" s="640"/>
+      <c r="E56" s="640"/>
+      <c r="F56" s="640"/>
+      <c r="G56" s="640"/>
+      <c r="H56" s="640"/>
+      <c r="I56" s="640"/>
+      <c r="J56" s="640"/>
+      <c r="K56" s="640"/>
+      <c r="L56" s="640"/>
     </row>
     <row r="57" spans="1:12" s="410" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="406" t="s">
@@ -63388,20 +63394,20 @@
       <c r="L58" s="66"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="610" t="s">
+      <c r="A59" s="637" t="s">
         <v>1080</v>
       </c>
-      <c r="B59" s="611"/>
-      <c r="C59" s="611"/>
-      <c r="D59" s="611"/>
-      <c r="E59" s="611"/>
-      <c r="F59" s="611"/>
-      <c r="G59" s="611"/>
-      <c r="H59" s="611"/>
-      <c r="I59" s="611"/>
-      <c r="J59" s="611"/>
-      <c r="K59" s="611"/>
-      <c r="L59" s="612"/>
+      <c r="B59" s="638"/>
+      <c r="C59" s="638"/>
+      <c r="D59" s="638"/>
+      <c r="E59" s="638"/>
+      <c r="F59" s="638"/>
+      <c r="G59" s="638"/>
+      <c r="H59" s="638"/>
+      <c r="I59" s="638"/>
+      <c r="J59" s="638"/>
+      <c r="K59" s="638"/>
+      <c r="L59" s="639"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="77" t="s">
@@ -63548,20 +63554,20 @@
       <c r="L65" s="66"/>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="613" t="s">
+      <c r="A66" s="640" t="s">
         <v>1097</v>
       </c>
-      <c r="B66" s="613"/>
-      <c r="C66" s="613"/>
-      <c r="D66" s="613"/>
-      <c r="E66" s="613"/>
-      <c r="F66" s="613"/>
-      <c r="G66" s="613"/>
-      <c r="H66" s="613"/>
-      <c r="I66" s="613"/>
-      <c r="J66" s="613"/>
-      <c r="K66" s="613"/>
-      <c r="L66" s="613"/>
+      <c r="B66" s="640"/>
+      <c r="C66" s="640"/>
+      <c r="D66" s="640"/>
+      <c r="E66" s="640"/>
+      <c r="F66" s="640"/>
+      <c r="G66" s="640"/>
+      <c r="H66" s="640"/>
+      <c r="I66" s="640"/>
+      <c r="J66" s="640"/>
+      <c r="K66" s="640"/>
+      <c r="L66" s="640"/>
     </row>
     <row r="67" spans="1:12" s="410" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="406" t="s">
@@ -63686,20 +63692,20 @@
       <c r="L71" s="66"/>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="613" t="s">
+      <c r="A72" s="640" t="s">
         <v>1108</v>
       </c>
-      <c r="B72" s="613"/>
-      <c r="C72" s="613"/>
-      <c r="D72" s="613"/>
-      <c r="E72" s="613"/>
-      <c r="F72" s="613"/>
-      <c r="G72" s="613"/>
-      <c r="H72" s="613"/>
-      <c r="I72" s="613"/>
-      <c r="J72" s="613"/>
-      <c r="K72" s="613"/>
-      <c r="L72" s="613"/>
+      <c r="B72" s="640"/>
+      <c r="C72" s="640"/>
+      <c r="D72" s="640"/>
+      <c r="E72" s="640"/>
+      <c r="F72" s="640"/>
+      <c r="G72" s="640"/>
+      <c r="H72" s="640"/>
+      <c r="I72" s="640"/>
+      <c r="J72" s="640"/>
+      <c r="K72" s="640"/>
+      <c r="L72" s="640"/>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="77" t="s">
@@ -63774,20 +63780,20 @@
       <c r="L75" s="66"/>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="613" t="s">
+      <c r="A76" s="640" t="s">
         <v>1117</v>
       </c>
-      <c r="B76" s="613"/>
-      <c r="C76" s="613"/>
-      <c r="D76" s="613"/>
-      <c r="E76" s="613"/>
-      <c r="F76" s="613"/>
-      <c r="G76" s="613"/>
-      <c r="H76" s="613"/>
-      <c r="I76" s="613"/>
-      <c r="J76" s="613"/>
-      <c r="K76" s="613"/>
-      <c r="L76" s="613"/>
+      <c r="B76" s="640"/>
+      <c r="C76" s="640"/>
+      <c r="D76" s="640"/>
+      <c r="E76" s="640"/>
+      <c r="F76" s="640"/>
+      <c r="G76" s="640"/>
+      <c r="H76" s="640"/>
+      <c r="I76" s="640"/>
+      <c r="J76" s="640"/>
+      <c r="K76" s="640"/>
+      <c r="L76" s="640"/>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="77" t="s">
@@ -63838,20 +63844,20 @@
       <c r="L78" s="66"/>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="613" t="s">
+      <c r="A79" s="640" t="s">
         <v>1123</v>
       </c>
-      <c r="B79" s="613"/>
-      <c r="C79" s="613"/>
-      <c r="D79" s="613"/>
-      <c r="E79" s="613"/>
-      <c r="F79" s="613"/>
-      <c r="G79" s="613"/>
-      <c r="H79" s="613"/>
-      <c r="I79" s="613"/>
-      <c r="J79" s="613"/>
-      <c r="K79" s="613"/>
-      <c r="L79" s="613"/>
+      <c r="B79" s="640"/>
+      <c r="C79" s="640"/>
+      <c r="D79" s="640"/>
+      <c r="E79" s="640"/>
+      <c r="F79" s="640"/>
+      <c r="G79" s="640"/>
+      <c r="H79" s="640"/>
+      <c r="I79" s="640"/>
+      <c r="J79" s="640"/>
+      <c r="K79" s="640"/>
+      <c r="L79" s="640"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="77" t="s">
@@ -63902,20 +63908,20 @@
       <c r="L81" s="66"/>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="613" t="s">
+      <c r="A82" s="640" t="s">
         <v>1129</v>
       </c>
-      <c r="B82" s="613"/>
-      <c r="C82" s="613"/>
-      <c r="D82" s="613"/>
-      <c r="E82" s="613"/>
-      <c r="F82" s="613"/>
-      <c r="G82" s="613"/>
-      <c r="H82" s="613"/>
-      <c r="I82" s="613"/>
-      <c r="J82" s="613"/>
-      <c r="K82" s="613"/>
-      <c r="L82" s="613"/>
+      <c r="B82" s="640"/>
+      <c r="C82" s="640"/>
+      <c r="D82" s="640"/>
+      <c r="E82" s="640"/>
+      <c r="F82" s="640"/>
+      <c r="G82" s="640"/>
+      <c r="H82" s="640"/>
+      <c r="I82" s="640"/>
+      <c r="J82" s="640"/>
+      <c r="K82" s="640"/>
+      <c r="L82" s="640"/>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="77" t="s">
@@ -64038,20 +64044,20 @@
       <c r="L87" s="66"/>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="613" t="s">
+      <c r="A88" s="640" t="s">
         <v>1143</v>
       </c>
-      <c r="B88" s="613"/>
-      <c r="C88" s="613"/>
-      <c r="D88" s="613"/>
-      <c r="E88" s="613"/>
-      <c r="F88" s="613"/>
-      <c r="G88" s="613"/>
-      <c r="H88" s="613"/>
-      <c r="I88" s="613"/>
-      <c r="J88" s="613"/>
-      <c r="K88" s="613"/>
-      <c r="L88" s="613"/>
+      <c r="B88" s="640"/>
+      <c r="C88" s="640"/>
+      <c r="D88" s="640"/>
+      <c r="E88" s="640"/>
+      <c r="F88" s="640"/>
+      <c r="G88" s="640"/>
+      <c r="H88" s="640"/>
+      <c r="I88" s="640"/>
+      <c r="J88" s="640"/>
+      <c r="K88" s="640"/>
+      <c r="L88" s="640"/>
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="77" t="s">
@@ -64102,36 +64108,36 @@
       <c r="L90" s="66"/>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="613" t="s">
+      <c r="A91" s="640" t="s">
         <v>1063</v>
       </c>
-      <c r="B91" s="613"/>
-      <c r="C91" s="613"/>
-      <c r="D91" s="613"/>
-      <c r="E91" s="613"/>
-      <c r="F91" s="613"/>
-      <c r="G91" s="613"/>
-      <c r="H91" s="613"/>
-      <c r="I91" s="613"/>
-      <c r="J91" s="613"/>
-      <c r="K91" s="613"/>
-      <c r="L91" s="613"/>
+      <c r="B91" s="640"/>
+      <c r="C91" s="640"/>
+      <c r="D91" s="640"/>
+      <c r="E91" s="640"/>
+      <c r="F91" s="640"/>
+      <c r="G91" s="640"/>
+      <c r="H91" s="640"/>
+      <c r="I91" s="640"/>
+      <c r="J91" s="640"/>
+      <c r="K91" s="640"/>
+      <c r="L91" s="640"/>
     </row>
     <row r="92" spans="1:12" s="410" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A92" s="406" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="B92" s="407" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="C92" s="408" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="D92" s="407" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="E92" s="407" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="F92" s="409"/>
       <c r="G92" s="409"/>
@@ -64276,20 +64282,20 @@
       <c r="L98" s="431"/>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="609" t="s">
+      <c r="A99" s="636" t="s">
         <v>1147</v>
       </c>
-      <c r="B99" s="609"/>
-      <c r="C99" s="609"/>
-      <c r="D99" s="609"/>
-      <c r="E99" s="609"/>
-      <c r="F99" s="609"/>
-      <c r="G99" s="609"/>
-      <c r="H99" s="609"/>
-      <c r="I99" s="609"/>
-      <c r="J99" s="609"/>
-      <c r="K99" s="609"/>
-      <c r="L99" s="609"/>
+      <c r="B99" s="636"/>
+      <c r="C99" s="636"/>
+      <c r="D99" s="636"/>
+      <c r="E99" s="636"/>
+      <c r="F99" s="636"/>
+      <c r="G99" s="636"/>
+      <c r="H99" s="636"/>
+      <c r="I99" s="636"/>
+      <c r="J99" s="636"/>
+      <c r="K99" s="636"/>
+      <c r="L99" s="636"/>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="331" t="s">
@@ -64574,10 +64580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="582" t="s">
+      <c r="A1" s="573" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="582"/>
+      <c r="B1" s="573"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -64612,250 +64618,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="583" t="s">
+      <c r="A2" s="574" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="583" t="s">
+      <c r="B2" s="574" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="583" t="s">
+      <c r="C2" s="574" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="586" t="s">
+      <c r="D2" s="577" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="586"/>
-      <c r="F2" s="586"/>
-      <c r="G2" s="552" t="s">
+      <c r="E2" s="577"/>
+      <c r="F2" s="577"/>
+      <c r="G2" s="586" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="553"/>
-      <c r="I2" s="553"/>
-      <c r="J2" s="558"/>
-      <c r="K2" s="546" t="s">
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="588"/>
+      <c r="K2" s="604" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="546"/>
-      <c r="M2" s="552" t="s">
+      <c r="L2" s="604"/>
+      <c r="M2" s="586" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="553"/>
-      <c r="O2" s="558"/>
-      <c r="P2" s="552" t="s">
+      <c r="N2" s="587"/>
+      <c r="O2" s="588"/>
+      <c r="P2" s="586" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="558"/>
-      <c r="R2" s="552" t="s">
+      <c r="Q2" s="588"/>
+      <c r="R2" s="586" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="553"/>
-      <c r="T2" s="552" t="s">
+      <c r="S2" s="587"/>
+      <c r="T2" s="586" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="553"/>
-      <c r="V2" s="553"/>
-      <c r="W2" s="553"/>
-      <c r="X2" s="558"/>
-      <c r="Y2" s="552" t="s">
+      <c r="U2" s="587"/>
+      <c r="V2" s="587"/>
+      <c r="W2" s="587"/>
+      <c r="X2" s="588"/>
+      <c r="Y2" s="586" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="553"/>
-      <c r="AA2" s="553"/>
-      <c r="AB2" s="558"/>
-      <c r="AC2" s="567" t="s">
+      <c r="Z2" s="587"/>
+      <c r="AA2" s="587"/>
+      <c r="AB2" s="588"/>
+      <c r="AC2" s="580" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="568"/>
-      <c r="AE2" s="568"/>
-      <c r="AF2" s="577"/>
-      <c r="AG2" s="567" t="s">
+      <c r="AD2" s="581"/>
+      <c r="AE2" s="581"/>
+      <c r="AF2" s="596"/>
+      <c r="AG2" s="580" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="568"/>
-      <c r="AI2" s="568"/>
+      <c r="AH2" s="581"/>
+      <c r="AI2" s="581"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="584"/>
-      <c r="B3" s="584"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="586"/>
-      <c r="E3" s="586"/>
-      <c r="F3" s="586"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="546" t="s">
+      <c r="A3" s="575"/>
+      <c r="B3" s="575"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="577"/>
+      <c r="F3" s="577"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="604" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="546"/>
-      <c r="M3" s="554"/>
-      <c r="N3" s="555"/>
-      <c r="O3" s="559"/>
-      <c r="P3" s="554"/>
-      <c r="Q3" s="559"/>
-      <c r="R3" s="554"/>
-      <c r="S3" s="555"/>
-      <c r="T3" s="554"/>
-      <c r="U3" s="555"/>
-      <c r="V3" s="555"/>
-      <c r="W3" s="555"/>
-      <c r="X3" s="559"/>
-      <c r="Y3" s="554"/>
-      <c r="Z3" s="555"/>
-      <c r="AA3" s="555"/>
-      <c r="AB3" s="559"/>
-      <c r="AC3" s="554"/>
-      <c r="AD3" s="555"/>
-      <c r="AE3" s="555"/>
-      <c r="AF3" s="559"/>
-      <c r="AG3" s="554"/>
-      <c r="AH3" s="555"/>
-      <c r="AI3" s="555"/>
+      <c r="L3" s="604"/>
+      <c r="M3" s="582"/>
+      <c r="N3" s="583"/>
+      <c r="O3" s="589"/>
+      <c r="P3" s="582"/>
+      <c r="Q3" s="589"/>
+      <c r="R3" s="582"/>
+      <c r="S3" s="583"/>
+      <c r="T3" s="582"/>
+      <c r="U3" s="583"/>
+      <c r="V3" s="583"/>
+      <c r="W3" s="583"/>
+      <c r="X3" s="589"/>
+      <c r="Y3" s="582"/>
+      <c r="Z3" s="583"/>
+      <c r="AA3" s="583"/>
+      <c r="AB3" s="589"/>
+      <c r="AC3" s="582"/>
+      <c r="AD3" s="583"/>
+      <c r="AE3" s="583"/>
+      <c r="AF3" s="589"/>
+      <c r="AG3" s="582"/>
+      <c r="AH3" s="583"/>
+      <c r="AI3" s="583"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="584"/>
-      <c r="B4" s="584"/>
-      <c r="C4" s="584"/>
-      <c r="D4" s="565" t="s">
+      <c r="A4" s="575"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="578" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="565" t="s">
+      <c r="E4" s="578" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="565" t="s">
+      <c r="F4" s="578" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="563" t="s">
+      <c r="G4" s="602" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="563" t="s">
+      <c r="H4" s="602" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="563" t="s">
+      <c r="I4" s="602" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="563" t="s">
+      <c r="J4" s="602" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="547" t="s">
+      <c r="K4" s="605" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="547" t="s">
+      <c r="L4" s="605" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="549" t="s">
+      <c r="M4" s="607" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="607" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="560" t="s">
+      <c r="O4" s="611" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="561" t="s">
+      <c r="P4" s="612" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="561" t="s">
+      <c r="Q4" s="612" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="556" t="s">
+      <c r="R4" s="609" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="556" t="s">
+      <c r="S4" s="609" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="569" t="s">
+      <c r="T4" s="584" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="580" t="s">
+      <c r="U4" s="600" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="581"/>
-      <c r="W4" s="551" t="s">
+      <c r="V4" s="601"/>
+      <c r="W4" s="599" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="551" t="s">
+      <c r="X4" s="599" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="571" t="s">
+      <c r="Y4" s="590" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="571" t="s">
+      <c r="Z4" s="590" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="575" t="s">
+      <c r="AA4" s="594" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="576"/>
-      <c r="AC4" s="573" t="s">
+      <c r="AB4" s="595"/>
+      <c r="AC4" s="592" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="573" t="s">
+      <c r="AD4" s="592" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="578" t="s">
+      <c r="AE4" s="597" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="579"/>
-      <c r="AG4" s="565" t="s">
+      <c r="AF4" s="598"/>
+      <c r="AG4" s="578" t="s">
         <v>36</v>
       </c>
-      <c r="AH4" s="565" t="s">
+      <c r="AH4" s="578" t="s">
         <v>37</v>
       </c>
-      <c r="AI4" s="565" t="s">
+      <c r="AI4" s="578" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="585"/>
-      <c r="B5" s="585"/>
-      <c r="C5" s="585"/>
-      <c r="D5" s="566"/>
-      <c r="E5" s="566"/>
-      <c r="F5" s="566"/>
-      <c r="G5" s="564"/>
-      <c r="H5" s="564"/>
-      <c r="I5" s="564"/>
-      <c r="J5" s="564"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="548"/>
-      <c r="M5" s="550"/>
-      <c r="N5" s="550"/>
-      <c r="O5" s="550"/>
-      <c r="P5" s="562"/>
-      <c r="Q5" s="562"/>
-      <c r="R5" s="557"/>
-      <c r="S5" s="557"/>
-      <c r="T5" s="570"/>
+      <c r="A5" s="576"/>
+      <c r="B5" s="576"/>
+      <c r="C5" s="576"/>
+      <c r="D5" s="579"/>
+      <c r="E5" s="579"/>
+      <c r="F5" s="579"/>
+      <c r="G5" s="603"/>
+      <c r="H5" s="603"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="606"/>
+      <c r="M5" s="608"/>
+      <c r="N5" s="608"/>
+      <c r="O5" s="608"/>
+      <c r="P5" s="613"/>
+      <c r="Q5" s="613"/>
+      <c r="R5" s="610"/>
+      <c r="S5" s="610"/>
+      <c r="T5" s="585"/>
       <c r="U5" s="60" t="s">
         <v>47</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="551"/>
-      <c r="X5" s="551"/>
-      <c r="Y5" s="572"/>
-      <c r="Z5" s="572"/>
+      <c r="W5" s="599"/>
+      <c r="X5" s="599"/>
+      <c r="Y5" s="591"/>
+      <c r="Z5" s="591"/>
       <c r="AA5" s="52" t="s">
         <v>54</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AC5" s="574"/>
-      <c r="AD5" s="574"/>
+      <c r="AC5" s="593"/>
+      <c r="AD5" s="593"/>
       <c r="AE5" s="53" t="s">
         <v>54</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="566"/>
-      <c r="AH5" s="566"/>
-      <c r="AI5" s="566"/>
+      <c r="AG5" s="579"/>
+      <c r="AH5" s="579"/>
+      <c r="AI5" s="579"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -65118,14 +65124,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -65142,26 +65160,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -65214,7 +65220,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="588" t="s">
+      <c r="B2" s="618" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -65227,7 +65233,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="589"/>
+      <c r="B3" s="619"/>
       <c r="C3" s="72" t="s">
         <v>147</v>
       </c>
@@ -65238,7 +65244,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="590" t="s">
+      <c r="B4" s="614" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -65251,7 +65257,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="591"/>
+      <c r="B5" s="615"/>
       <c r="C5" s="71" t="s">
         <v>143</v>
       </c>
@@ -65262,7 +65268,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="591"/>
+      <c r="B6" s="615"/>
       <c r="C6" s="71" t="s">
         <v>142</v>
       </c>
@@ -65273,7 +65279,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="591"/>
+      <c r="B7" s="615"/>
       <c r="C7" s="71" t="s">
         <v>144</v>
       </c>
@@ -65284,7 +65290,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="592"/>
+      <c r="B8" s="616"/>
       <c r="C8" s="71" t="s">
         <v>148</v>
       </c>
@@ -65295,7 +65301,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="590" t="s">
+      <c r="B9" s="614" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -65308,8 +65314,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="591"/>
-      <c r="C10" s="590" t="s">
+      <c r="B10" s="615"/>
+      <c r="C10" s="614" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -65321,8 +65327,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="591"/>
-      <c r="C11" s="592"/>
+      <c r="B11" s="615"/>
+      <c r="C11" s="616"/>
       <c r="D11" s="70" t="s">
         <v>151</v>
       </c>
@@ -65332,8 +65338,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="591"/>
-      <c r="C12" s="590" t="s">
+      <c r="B12" s="615"/>
+      <c r="C12" s="614" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="70" t="s">
@@ -65347,9 +65353,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="591"/>
-      <c r="C13" s="591"/>
-      <c r="D13" s="590" t="s">
+      <c r="B13" s="615"/>
+      <c r="C13" s="615"/>
+      <c r="D13" s="614" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -65360,9 +65366,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="591"/>
-      <c r="C14" s="591"/>
-      <c r="D14" s="591"/>
+      <c r="B14" s="615"/>
+      <c r="C14" s="615"/>
+      <c r="D14" s="615"/>
       <c r="E14" s="66" t="s">
         <v>122</v>
       </c>
@@ -65371,9 +65377,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="591"/>
-      <c r="C15" s="591"/>
-      <c r="D15" s="591"/>
+      <c r="B15" s="615"/>
+      <c r="C15" s="615"/>
+      <c r="D15" s="615"/>
       <c r="E15" s="66" t="s">
         <v>123</v>
       </c>
@@ -65382,9 +65388,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="591"/>
-      <c r="C16" s="591"/>
-      <c r="D16" s="591"/>
+      <c r="B16" s="615"/>
+      <c r="C16" s="615"/>
+      <c r="D16" s="615"/>
       <c r="E16" s="66" t="s">
         <v>124</v>
       </c>
@@ -65393,9 +65399,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="591"/>
-      <c r="C17" s="591"/>
-      <c r="D17" s="592"/>
+      <c r="B17" s="615"/>
+      <c r="C17" s="615"/>
+      <c r="D17" s="616"/>
       <c r="E17" s="66" t="s">
         <v>125</v>
       </c>
@@ -65404,8 +65410,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="591"/>
-      <c r="C18" s="591"/>
+      <c r="B18" s="615"/>
+      <c r="C18" s="615"/>
       <c r="D18" s="70" t="s">
         <v>119</v>
       </c>
@@ -65417,9 +65423,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="591"/>
-      <c r="C19" s="591"/>
-      <c r="D19" s="590" t="s">
+      <c r="B19" s="615"/>
+      <c r="C19" s="615"/>
+      <c r="D19" s="614" t="s">
         <v>120</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -65430,9 +65436,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="591"/>
-      <c r="C20" s="592"/>
-      <c r="D20" s="592"/>
+      <c r="B20" s="615"/>
+      <c r="C20" s="616"/>
+      <c r="D20" s="616"/>
       <c r="E20" s="66" t="s">
         <v>125</v>
       </c>
@@ -65441,11 +65447,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="591"/>
-      <c r="C21" s="590" t="s">
+      <c r="B21" s="615"/>
+      <c r="C21" s="614" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="590" t="s">
+      <c r="D21" s="614" t="s">
         <v>120</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -65456,9 +65462,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="591"/>
-      <c r="C22" s="591"/>
-      <c r="D22" s="592"/>
+      <c r="B22" s="615"/>
+      <c r="C22" s="615"/>
+      <c r="D22" s="616"/>
       <c r="E22" s="66" t="s">
         <v>130</v>
       </c>
@@ -65467,9 +65473,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="591"/>
-      <c r="C23" s="591"/>
-      <c r="D23" s="590" t="s">
+      <c r="B23" s="615"/>
+      <c r="C23" s="615"/>
+      <c r="D23" s="614" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -65480,9 +65486,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="591"/>
-      <c r="C24" s="591"/>
-      <c r="D24" s="591"/>
+      <c r="B24" s="615"/>
+      <c r="C24" s="615"/>
+      <c r="D24" s="615"/>
       <c r="E24" s="66" t="s">
         <v>132</v>
       </c>
@@ -65491,9 +65497,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="591"/>
-      <c r="C25" s="591"/>
-      <c r="D25" s="592"/>
+      <c r="B25" s="615"/>
+      <c r="C25" s="615"/>
+      <c r="D25" s="616"/>
       <c r="E25" s="66" t="s">
         <v>133</v>
       </c>
@@ -65502,8 +65508,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="591"/>
-      <c r="C26" s="592"/>
+      <c r="B26" s="615"/>
+      <c r="C26" s="616"/>
       <c r="D26" s="70" t="s">
         <v>118</v>
       </c>
@@ -65515,8 +65521,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="591"/>
-      <c r="C27" s="590" t="s">
+      <c r="B27" s="615"/>
+      <c r="C27" s="614" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="70" t="s">
@@ -65531,8 +65537,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="591"/>
-      <c r="C28" s="591"/>
+      <c r="B28" s="615"/>
+      <c r="C28" s="615"/>
       <c r="D28" s="70" t="s">
         <v>136</v>
       </c>
@@ -65545,8 +65551,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="591"/>
-      <c r="C29" s="592"/>
+      <c r="B29" s="615"/>
+      <c r="C29" s="616"/>
       <c r="D29" s="70" t="s">
         <v>137</v>
       </c>
@@ -65559,7 +65565,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="591"/>
+      <c r="B30" s="615"/>
       <c r="C30" s="70" t="s">
         <v>76</v>
       </c>
@@ -65570,7 +65576,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="591"/>
+      <c r="B31" s="615"/>
       <c r="C31" s="67" t="s">
         <v>97</v>
       </c>
@@ -65581,7 +65587,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="591"/>
+      <c r="B32" s="615"/>
       <c r="C32" s="70" t="s">
         <v>98</v>
       </c>
@@ -65592,8 +65598,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="591"/>
-      <c r="C33" s="590" t="s">
+      <c r="B33" s="615"/>
+      <c r="C33" s="614" t="s">
         <v>99</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -65605,8 +65611,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="591"/>
-      <c r="C34" s="592"/>
+      <c r="B34" s="615"/>
+      <c r="C34" s="616"/>
       <c r="D34" s="70" t="s">
         <v>154</v>
       </c>
@@ -65616,7 +65622,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="592"/>
+      <c r="B35" s="616"/>
       <c r="C35" s="70" t="s">
         <v>100</v>
       </c>
@@ -65630,7 +65636,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="590" t="s">
+      <c r="B36" s="614" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -65643,7 +65649,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="591"/>
+      <c r="B37" s="615"/>
       <c r="C37" s="70" t="s">
         <v>101</v>
       </c>
@@ -65654,7 +65660,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="591"/>
+      <c r="B38" s="615"/>
       <c r="C38" s="70" t="s">
         <v>102</v>
       </c>
@@ -65665,7 +65671,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="592"/>
+      <c r="B39" s="616"/>
       <c r="C39" s="70" t="s">
         <v>103</v>
       </c>
@@ -65679,7 +65685,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="590" t="s">
+      <c r="B40" s="614" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -65692,8 +65698,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="591"/>
-      <c r="C41" s="590" t="s">
+      <c r="B41" s="615"/>
+      <c r="C41" s="614" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -65705,8 +65711,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="591"/>
-      <c r="C42" s="592"/>
+      <c r="B42" s="615"/>
+      <c r="C42" s="616"/>
       <c r="D42" s="70" t="s">
         <v>138</v>
       </c>
@@ -65716,7 +65722,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="592"/>
+      <c r="B43" s="616"/>
       <c r="C43" s="70" t="s">
         <v>105</v>
       </c>
@@ -65727,7 +65733,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="590" t="s">
+      <c r="B44" s="614" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -65741,7 +65747,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="591"/>
+      <c r="B45" s="615"/>
       <c r="C45" s="70" t="s">
         <v>106</v>
       </c>
@@ -65752,7 +65758,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="591"/>
+      <c r="B46" s="615"/>
       <c r="C46" s="70" t="s">
         <v>107</v>
       </c>
@@ -65763,7 +65769,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="591"/>
+      <c r="B47" s="615"/>
       <c r="C47" s="70" t="s">
         <v>108</v>
       </c>
@@ -65774,7 +65780,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="592"/>
+      <c r="B48" s="616"/>
       <c r="C48" s="70" t="s">
         <v>109</v>
       </c>
@@ -65832,10 +65838,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="590" t="s">
+      <c r="C53" s="614" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="590" t="s">
+      <c r="D53" s="614" t="s">
         <v>182</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -65847,8 +65853,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="591"/>
-      <c r="D54" s="591"/>
+      <c r="C54" s="615"/>
+      <c r="D54" s="615"/>
       <c r="E54" s="66" t="s">
         <v>186</v>
       </c>
@@ -65858,8 +65864,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="591"/>
-      <c r="D55" s="592"/>
+      <c r="C55" s="615"/>
+      <c r="D55" s="616"/>
       <c r="E55" s="66" t="s">
         <v>187</v>
       </c>
@@ -65869,11 +65875,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="591"/>
-      <c r="D56" s="590" t="s">
+      <c r="C56" s="615"/>
+      <c r="D56" s="614" t="s">
         <v>183</v>
       </c>
-      <c r="E56" s="590" t="s">
+      <c r="E56" s="614" t="s">
         <v>188</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -65884,9 +65890,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="591"/>
-      <c r="D57" s="591"/>
-      <c r="E57" s="591"/>
+      <c r="C57" s="615"/>
+      <c r="D57" s="615"/>
+      <c r="E57" s="615"/>
       <c r="F57" s="66" t="s">
         <v>190</v>
       </c>
@@ -65895,9 +65901,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="591"/>
-      <c r="D58" s="591"/>
-      <c r="E58" s="592"/>
+      <c r="C58" s="615"/>
+      <c r="D58" s="615"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="66" t="s">
         <v>187</v>
       </c>
@@ -65906,9 +65912,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="591"/>
-      <c r="D59" s="591"/>
-      <c r="E59" s="590" t="s">
+      <c r="C59" s="615"/>
+      <c r="D59" s="615"/>
+      <c r="E59" s="614" t="s">
         <v>130</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -65919,9 +65925,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="591"/>
-      <c r="D60" s="592"/>
-      <c r="E60" s="592"/>
+      <c r="C60" s="615"/>
+      <c r="D60" s="616"/>
+      <c r="E60" s="616"/>
       <c r="F60" s="66" t="s">
         <v>192</v>
       </c>
@@ -65930,8 +65936,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="591"/>
-      <c r="D61" s="590" t="s">
+      <c r="C61" s="615"/>
+      <c r="D61" s="614" t="s">
         <v>184</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -65943,8 +65949,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="591"/>
-      <c r="D62" s="591"/>
+      <c r="C62" s="615"/>
+      <c r="D62" s="615"/>
       <c r="E62" s="66" t="s">
         <v>194</v>
       </c>
@@ -65954,8 +65960,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="592"/>
-      <c r="D63" s="592"/>
+      <c r="C63" s="616"/>
+      <c r="D63" s="616"/>
       <c r="E63" s="66" t="s">
         <v>195</v>
       </c>
@@ -65968,7 +65974,7 @@
       <c r="C64" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="D64" s="590" t="s">
+      <c r="D64" s="614" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -65981,7 +65987,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="592"/>
+      <c r="D65" s="616"/>
       <c r="E65" s="66" t="s">
         <v>198</v>
       </c>
@@ -66067,7 +66073,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="587" t="s">
+      <c r="B73" s="617" t="s">
         <v>78</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -66080,7 +66086,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="587"/>
+      <c r="B74" s="617"/>
       <c r="C74" s="70" t="s">
         <v>111</v>
       </c>
@@ -66091,7 +66097,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="587"/>
+      <c r="B75" s="617"/>
       <c r="C75" s="70" t="s">
         <v>112</v>
       </c>
@@ -66102,7 +66108,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="587"/>
+      <c r="B76" s="617"/>
       <c r="C76" s="70" t="s">
         <v>113</v>
       </c>
@@ -66113,7 +66119,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="587"/>
+      <c r="B77" s="617"/>
       <c r="C77" s="70" t="s">
         <v>114</v>
       </c>
@@ -66124,7 +66130,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="587"/>
+      <c r="B78" s="617"/>
       <c r="C78" s="70" t="s">
         <v>115</v>
       </c>
@@ -66135,7 +66141,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="587"/>
+      <c r="B79" s="617"/>
       <c r="C79" s="70" t="s">
         <v>116</v>
       </c>
@@ -66146,7 +66152,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="587"/>
+      <c r="B80" s="617"/>
       <c r="C80" s="70" t="s">
         <v>117</v>
       </c>
@@ -66168,18 +66174,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -66192,6 +66186,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -66428,8 +66434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -66502,17 +66508,17 @@
       <c r="K2" s="101"/>
       <c r="L2" s="172"/>
     </row>
-    <row r="3" spans="1:12" s="623" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="638" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B3" s="619" t="s">
+    <row r="3" spans="1:12" s="510" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="525" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B3" s="506" t="s">
         <v>603</v>
       </c>
-      <c r="C3" s="620" t="s">
+      <c r="C3" s="507" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="621" t="s">
+      <c r="D3" s="508" t="s">
         <v>604</v>
       </c>
       <c r="E3" s="310"/>
@@ -66522,33 +66528,33 @@
       <c r="I3" s="308"/>
       <c r="J3" s="308"/>
       <c r="K3" s="310"/>
-      <c r="L3" s="622"/>
-    </row>
-    <row r="4" spans="1:12" s="623" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="638" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B4" s="619" t="s">
+      <c r="L3" s="509"/>
+    </row>
+    <row r="4" spans="1:12" s="510" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="525" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B4" s="506" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="620" t="s">
+      <c r="C4" s="507" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="621" t="s">
+      <c r="D4" s="508" t="s">
         <v>606</v>
       </c>
       <c r="E4" s="310"/>
-      <c r="F4" s="624"/>
-      <c r="G4" s="624"/>
-      <c r="H4" s="624"/>
-      <c r="I4" s="624"/>
-      <c r="J4" s="624"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
+      <c r="H4" s="511"/>
+      <c r="I4" s="511"/>
+      <c r="J4" s="511"/>
       <c r="K4" s="310"/>
-      <c r="L4" s="622"/>
+      <c r="L4" s="509"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="640" t="s">
-        <v>2133</v>
+      <c r="A5" s="527" t="s">
+        <v>2130</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="101"/>
@@ -66562,59 +66568,59 @@
       <c r="K5" s="105"/>
       <c r="L5" s="172"/>
     </row>
-    <row r="6" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="639" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B6" s="625" t="s">
+    <row r="6" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="526" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B6" s="512" t="s">
         <v>607</v>
       </c>
-      <c r="C6" s="620" t="s">
+      <c r="C6" s="507" t="s">
         <v>620</v>
       </c>
-      <c r="D6" s="621" t="s">
+      <c r="D6" s="508" t="s">
         <v>608</v>
       </c>
       <c r="E6" s="308"/>
       <c r="F6" s="308"/>
-      <c r="G6" s="626"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
+      <c r="G6" s="513"/>
+      <c r="H6" s="514"/>
+      <c r="I6" s="514"/>
+      <c r="J6" s="514"/>
       <c r="K6" s="310"/>
     </row>
-    <row r="7" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="639" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B7" s="625" t="s">
+    <row r="7" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="526" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B7" s="512" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="620" t="s">
+      <c r="C7" s="507" t="s">
         <v>620</v>
       </c>
-      <c r="D7" s="628" t="s">
+      <c r="D7" s="515" t="s">
         <v>610</v>
       </c>
       <c r="E7" s="308"/>
       <c r="F7" s="308"/>
-      <c r="G7" s="626"/>
-      <c r="H7" s="627"/>
-      <c r="I7" s="627"/>
-      <c r="J7" s="627"/>
+      <c r="G7" s="513"/>
+      <c r="H7" s="514"/>
+      <c r="I7" s="514"/>
+      <c r="J7" s="514"/>
       <c r="K7" s="310"/>
     </row>
-    <row r="8" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="639" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B8" s="625" t="s">
+    <row r="8" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="526" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B8" s="512" t="s">
         <v>1869</v>
       </c>
-      <c r="C8" s="620" t="s">
+      <c r="C8" s="507" t="s">
         <v>1874</v>
       </c>
-      <c r="D8" s="628" t="s">
+      <c r="D8" s="515" t="s">
         <v>1875</v>
       </c>
       <c r="E8" s="308"/>
@@ -66625,17 +66631,17 @@
       <c r="J8" s="308"/>
       <c r="K8" s="310"/>
     </row>
-    <row r="9" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="639" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B9" s="625" t="s">
+    <row r="9" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="526" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B9" s="512" t="s">
         <v>611</v>
       </c>
-      <c r="C9" s="620" t="s">
+      <c r="C9" s="507" t="s">
         <v>1873</v>
       </c>
-      <c r="D9" s="628" t="s">
+      <c r="D9" s="515" t="s">
         <v>612</v>
       </c>
       <c r="E9" s="308"/>
@@ -66646,17 +66652,17 @@
       <c r="J9" s="308"/>
       <c r="K9" s="310"/>
     </row>
-    <row r="10" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="639" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B10" s="625" t="s">
+    <row r="10" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="526" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B10" s="512" t="s">
         <v>613</v>
       </c>
-      <c r="C10" s="620" t="s">
+      <c r="C10" s="507" t="s">
         <v>1870</v>
       </c>
-      <c r="D10" s="628" t="s">
+      <c r="D10" s="515" t="s">
         <v>1872</v>
       </c>
       <c r="E10" s="308"/>
@@ -66667,59 +66673,59 @@
       <c r="J10" s="308"/>
       <c r="K10" s="310"/>
     </row>
-    <row r="11" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="639" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B11" s="625" t="s">
+    <row r="11" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="526" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B11" s="512" t="s">
         <v>614</v>
       </c>
-      <c r="C11" s="620" t="s">
+      <c r="C11" s="507" t="s">
         <v>375</v>
       </c>
-      <c r="D11" s="628" t="s">
+      <c r="D11" s="515" t="s">
         <v>615</v>
       </c>
       <c r="E11" s="308"/>
       <c r="F11" s="308"/>
-      <c r="G11" s="626"/>
-      <c r="H11" s="627"/>
-      <c r="I11" s="627"/>
-      <c r="J11" s="627"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="514"/>
+      <c r="I11" s="514"/>
+      <c r="J11" s="514"/>
       <c r="K11" s="310"/>
     </row>
-    <row r="12" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="639" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B12" s="625" t="s">
+    <row r="12" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="526" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B12" s="512" t="s">
         <v>616</v>
       </c>
-      <c r="C12" s="620" t="s">
+      <c r="C12" s="507" t="s">
         <v>620</v>
       </c>
-      <c r="D12" s="628" t="s">
+      <c r="D12" s="515" t="s">
         <v>617</v>
       </c>
       <c r="E12" s="308"/>
       <c r="F12" s="308"/>
-      <c r="G12" s="626"/>
-      <c r="H12" s="627"/>
-      <c r="I12" s="627"/>
-      <c r="J12" s="627"/>
+      <c r="G12" s="513"/>
+      <c r="H12" s="514"/>
+      <c r="I12" s="514"/>
+      <c r="J12" s="514"/>
       <c r="K12" s="310"/>
     </row>
-    <row r="13" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="639" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B13" s="625" t="s">
+    <row r="13" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="526" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B13" s="512" t="s">
         <v>618</v>
       </c>
-      <c r="C13" s="620" t="s">
+      <c r="C13" s="507" t="s">
         <v>375</v>
       </c>
-      <c r="D13" s="629" t="s">
+      <c r="D13" s="516" t="s">
         <v>1868</v>
       </c>
       <c r="E13" s="308"/>
@@ -66730,17 +66736,17 @@
       <c r="J13" s="308"/>
       <c r="K13" s="310"/>
     </row>
-    <row r="14" spans="1:12" s="623" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="639" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B14" s="625" t="s">
+    <row r="14" spans="1:12" s="510" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="526" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B14" s="512" t="s">
         <v>1867</v>
       </c>
-      <c r="C14" s="620" t="s">
+      <c r="C14" s="507" t="s">
         <v>1870</v>
       </c>
-      <c r="D14" s="628" t="s">
+      <c r="D14" s="515" t="s">
         <v>1871</v>
       </c>
       <c r="E14" s="308"/>
@@ -66766,18 +66772,18 @@
       <c r="J15" s="112"/>
       <c r="K15" s="105"/>
     </row>
-    <row r="16" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="636" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B16" s="630" t="s">
+    <row r="16" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="523" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B16" s="517" t="s">
         <v>2121</v>
       </c>
       <c r="C16" s="433" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="631" t="s">
-        <v>2122</v>
+      <c r="D16" s="518" t="s">
+        <v>2147</v>
       </c>
       <c r="E16" s="434"/>
       <c r="F16" s="434"/>
@@ -66787,18 +66793,18 @@
       <c r="J16" s="434"/>
       <c r="K16" s="432"/>
     </row>
-    <row r="17" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="636" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B17" s="630" t="s">
-        <v>2123</v>
+    <row r="17" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A17" s="523" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B17" s="517" t="s">
+        <v>2122</v>
       </c>
       <c r="C17" s="433" t="s">
         <v>375</v>
       </c>
-      <c r="D17" s="631" t="s">
-        <v>2124</v>
+      <c r="D17" s="518" t="s">
+        <v>2148</v>
       </c>
       <c r="E17" s="434"/>
       <c r="F17" s="434"/>
@@ -66808,18 +66814,18 @@
       <c r="J17" s="434"/>
       <c r="K17" s="432"/>
     </row>
-    <row r="18" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="636" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B18" s="630" t="s">
-        <v>2125</v>
+    <row r="18" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="523" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B18" s="517" t="s">
+        <v>2123</v>
       </c>
       <c r="C18" s="433" t="s">
         <v>375</v>
       </c>
-      <c r="D18" s="631" t="s">
-        <v>2126</v>
+      <c r="D18" s="518" t="s">
+        <v>2149</v>
       </c>
       <c r="E18" s="434"/>
       <c r="F18" s="434"/>
@@ -66829,18 +66835,18 @@
       <c r="J18" s="434"/>
       <c r="K18" s="432"/>
     </row>
-    <row r="19" spans="1:11" s="635" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="637" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B19" s="632" t="s">
-        <v>2127</v>
+    <row r="19" spans="1:11" s="522" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="524" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B19" s="519" t="s">
+        <v>2124</v>
       </c>
       <c r="C19" s="433" t="s">
         <v>375</v>
       </c>
-      <c r="D19" s="633" t="s">
-        <v>2128</v>
+      <c r="D19" s="520" t="s">
+        <v>2125</v>
       </c>
       <c r="E19" s="498"/>
       <c r="F19" s="498"/>
@@ -66848,7 +66854,7 @@
       <c r="H19" s="498"/>
       <c r="I19" s="498"/>
       <c r="J19" s="498"/>
-      <c r="K19" s="634"/>
+      <c r="K19" s="521"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="174"/>
@@ -71213,7 +71219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -71300,7 +71306,7 @@
       <c r="L3" s="105"/>
     </row>
     <row r="4" spans="1:14" s="151" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="617" t="s">
+      <c r="A4" s="504" t="s">
         <v>870</v>
       </c>
       <c r="B4" s="149" t="s">
@@ -71338,7 +71344,7 @@
       <c r="L5" s="105"/>
     </row>
     <row r="6" spans="1:14" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="617" t="s">
+      <c r="A6" s="504" t="s">
         <v>871</v>
       </c>
       <c r="B6" s="152" t="s">
@@ -71360,7 +71366,7 @@
       <c r="L6" s="105"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="617" t="s">
+      <c r="A7" s="504" t="s">
         <v>872</v>
       </c>
       <c r="B7" s="154" t="s">
@@ -71384,7 +71390,7 @@
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="617" t="s">
+      <c r="A8" s="504" t="s">
         <v>873</v>
       </c>
       <c r="B8" s="154" t="s">
@@ -71424,7 +71430,7 @@
       <c r="L9" s="105"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="617" t="s">
+      <c r="A10" s="504" t="s">
         <v>874</v>
       </c>
       <c r="B10" s="154" t="s">
@@ -71448,7 +71454,7 @@
       <c r="N10" s="77"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="617" t="s">
+      <c r="A11" s="504" t="s">
         <v>875</v>
       </c>
       <c r="B11" s="154" t="s">
@@ -71472,7 +71478,7 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="617" t="s">
+      <c r="A12" s="504" t="s">
         <v>876</v>
       </c>
       <c r="B12" s="154" t="s">
@@ -71496,7 +71502,7 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="617" t="s">
+      <c r="A13" s="504" t="s">
         <v>877</v>
       </c>
       <c r="B13" s="154" t="s">
@@ -71536,7 +71542,7 @@
       <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="617" t="s">
+      <c r="A15" s="504" t="s">
         <v>878</v>
       </c>
       <c r="B15" s="154" t="s">
@@ -71560,7 +71566,7 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="617" t="s">
+      <c r="A16" s="504" t="s">
         <v>879</v>
       </c>
       <c r="B16" s="154" t="s">
@@ -71584,7 +71590,7 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="617" t="s">
+      <c r="A17" s="504" t="s">
         <v>880</v>
       </c>
       <c r="B17" s="154" t="s">
@@ -71608,7 +71614,7 @@
       <c r="N17" s="157"/>
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="617" t="s">
+      <c r="A18" s="504" t="s">
         <v>881</v>
       </c>
       <c r="B18" s="154" t="s">
@@ -71632,7 +71638,7 @@
       <c r="N18" s="157"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="617" t="s">
+      <c r="A19" s="504" t="s">
         <v>882</v>
       </c>
       <c r="B19" s="154" t="s">
@@ -71656,7 +71662,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" s="151" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="617" t="s">
+      <c r="A20" s="504" t="s">
         <v>883</v>
       </c>
       <c r="B20" s="154" t="s">
@@ -71680,7 +71686,7 @@
       <c r="N20" s="299"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="617" t="s">
+      <c r="A21" s="504" t="s">
         <v>884</v>
       </c>
       <c r="B21" s="154" t="s">
@@ -71720,7 +71726,7 @@
       <c r="L22" s="105"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="617" t="s">
+      <c r="A23" s="504" t="s">
         <v>885</v>
       </c>
       <c r="B23" s="77" t="s">
@@ -71744,7 +71750,7 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="617" t="s">
+      <c r="A24" s="504" t="s">
         <v>886</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -71768,7 +71774,7 @@
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="617" t="s">
+      <c r="A25" s="504" t="s">
         <v>887</v>
       </c>
       <c r="B25" s="78" t="s">
@@ -71792,7 +71798,7 @@
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="617" t="s">
+      <c r="A26" s="504" t="s">
         <v>888</v>
       </c>
       <c r="B26" s="78" t="s">
@@ -71816,7 +71822,7 @@
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" s="151" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="618" t="s">
+      <c r="A27" s="505" t="s">
         <v>889</v>
       </c>
       <c r="B27" s="301" t="s">
@@ -71842,7 +71848,7 @@
       <c r="N27" s="305"/>
     </row>
     <row r="28" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="617" t="s">
+      <c r="A28" s="504" t="s">
         <v>890</v>
       </c>
       <c r="B28" s="78" t="s">
@@ -71866,7 +71872,7 @@
       <c r="N28" s="77"/>
     </row>
     <row r="29" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="617" t="s">
+      <c r="A29" s="504" t="s">
         <v>891</v>
       </c>
       <c r="B29" s="78" t="s">
@@ -71906,7 +71912,7 @@
       <c r="L30" s="105"/>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="617" t="s">
+      <c r="A31" s="504" t="s">
         <v>892</v>
       </c>
       <c r="B31" s="78" t="s">
@@ -71930,7 +71936,7 @@
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="617" t="s">
+      <c r="A32" s="504" t="s">
         <v>893</v>
       </c>
       <c r="B32" s="78" t="s">
@@ -71970,7 +71976,7 @@
       <c r="L33" s="111"/>
     </row>
     <row r="34" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="617" t="s">
+      <c r="A34" s="504" t="s">
         <v>894</v>
       </c>
       <c r="B34" s="78" t="s">
@@ -71994,7 +72000,7 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="617" t="s">
+      <c r="A35" s="504" t="s">
         <v>895</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -72034,7 +72040,7 @@
       <c r="L36" s="111"/>
     </row>
     <row r="37" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="617" t="s">
+      <c r="A37" s="504" t="s">
         <v>896</v>
       </c>
       <c r="B37" s="78" t="s">
@@ -72058,7 +72064,7 @@
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" s="311" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="617" t="s">
+      <c r="A38" s="504" t="s">
         <v>897</v>
       </c>
       <c r="B38" s="306" t="s">
@@ -72082,7 +72088,7 @@
       <c r="N38" s="307"/>
     </row>
     <row r="39" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="617" t="s">
+      <c r="A39" s="504" t="s">
         <v>898</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -72106,7 +72112,7 @@
       <c r="N39" s="77"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="617" t="s">
+      <c r="A40" s="504" t="s">
         <v>899</v>
       </c>
       <c r="B40" s="78" t="s">
@@ -72130,7 +72136,7 @@
       <c r="N40" s="77"/>
     </row>
     <row r="41" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="617" t="s">
+      <c r="A41" s="504" t="s">
         <v>900</v>
       </c>
       <c r="B41" s="150" t="s">
@@ -72154,7 +72160,7 @@
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" s="311" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="617" t="s">
+      <c r="A42" s="504" t="s">
         <v>901</v>
       </c>
       <c r="B42" s="306" t="s">
@@ -72178,7 +72184,7 @@
       <c r="N42" s="307"/>
     </row>
     <row r="43" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="617" t="s">
+      <c r="A43" s="504" t="s">
         <v>902</v>
       </c>
       <c r="B43" s="150" t="s">
@@ -72202,7 +72208,7 @@
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="617" t="s">
+      <c r="A44" s="504" t="s">
         <v>903</v>
       </c>
       <c r="B44" s="150" t="s">
@@ -72226,7 +72232,7 @@
       <c r="N44" s="77"/>
     </row>
     <row r="45" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="617" t="s">
+      <c r="A45" s="504" t="s">
         <v>904</v>
       </c>
       <c r="B45" s="150" t="s">
@@ -72250,7 +72256,7 @@
       <c r="N45" s="77"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="617" t="s">
+      <c r="A46" s="504" t="s">
         <v>905</v>
       </c>
       <c r="B46" s="150" t="s">
@@ -72274,7 +72280,7 @@
       <c r="N46" s="77"/>
     </row>
     <row r="47" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="617" t="s">
+      <c r="A47" s="504" t="s">
         <v>906</v>
       </c>
       <c r="B47" s="150" t="s">
@@ -72298,7 +72304,7 @@
       <c r="N47" s="77"/>
     </row>
     <row r="48" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="617" t="s">
+      <c r="A48" s="504" t="s">
         <v>907</v>
       </c>
       <c r="B48" s="150" t="s">
@@ -72322,7 +72328,7 @@
       <c r="N48" s="77"/>
     </row>
     <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="617" t="s">
+      <c r="A49" s="504" t="s">
         <v>908</v>
       </c>
       <c r="B49" s="150" t="s">
@@ -72346,7 +72352,7 @@
       <c r="N49" s="77"/>
     </row>
     <row r="50" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="617" t="s">
+      <c r="A50" s="504" t="s">
         <v>909</v>
       </c>
       <c r="B50" s="150" t="s">
@@ -72370,7 +72376,7 @@
       <c r="N50" s="77"/>
     </row>
     <row r="51" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="617" t="s">
+      <c r="A51" s="504" t="s">
         <v>910</v>
       </c>
       <c r="B51" s="168" t="s">
@@ -72394,7 +72400,7 @@
       <c r="N51" s="77"/>
     </row>
     <row r="52" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="617" t="s">
+      <c r="A52" s="504" t="s">
         <v>911</v>
       </c>
       <c r="B52" s="150" t="s">
@@ -72418,7 +72424,7 @@
       <c r="N52" s="77"/>
     </row>
     <row r="53" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="617" t="s">
+      <c r="A53" s="504" t="s">
         <v>912</v>
       </c>
       <c r="B53" s="150" t="s">
@@ -72442,7 +72448,7 @@
       <c r="N53" s="77"/>
     </row>
     <row r="54" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="617" t="s">
+      <c r="A54" s="504" t="s">
         <v>913</v>
       </c>
       <c r="B54" s="150" t="s">
@@ -72466,7 +72472,7 @@
       <c r="N54" s="77"/>
     </row>
     <row r="55" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="617" t="s">
+      <c r="A55" s="504" t="s">
         <v>914</v>
       </c>
       <c r="B55" s="150" t="s">
@@ -72490,7 +72496,7 @@
       <c r="N55" s="77"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="617" t="s">
+      <c r="A56" s="504" t="s">
         <v>915</v>
       </c>
       <c r="B56" s="150" t="s">
@@ -72514,7 +72520,7 @@
       <c r="N56" s="77"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="617" t="s">
+      <c r="A57" s="504" t="s">
         <v>916</v>
       </c>
       <c r="B57" s="150" t="s">
@@ -72540,7 +72546,7 @@
       <c r="N57" s="77"/>
     </row>
     <row r="58" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="617" t="s">
+      <c r="A58" s="504" t="s">
         <v>917</v>
       </c>
       <c r="B58" s="150" t="s">
@@ -72564,7 +72570,7 @@
       <c r="N58" s="77"/>
     </row>
     <row r="59" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="617" t="s">
+      <c r="A59" s="504" t="s">
         <v>918</v>
       </c>
       <c r="B59" s="150" t="s">
@@ -72606,7 +72612,7 @@
       <c r="N60" s="77"/>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="617" t="s">
+      <c r="A61" s="504" t="s">
         <v>865</v>
       </c>
       <c r="B61" s="78" t="s">
@@ -72630,7 +72636,7 @@
       <c r="N61" s="77"/>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="617" t="s">
+      <c r="A62" s="504" t="s">
         <v>866</v>
       </c>
       <c r="B62" s="78" t="s">
@@ -72654,7 +72660,7 @@
       <c r="N62" s="77"/>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="617" t="s">
+      <c r="A63" s="504" t="s">
         <v>867</v>
       </c>
       <c r="B63" s="77" t="s">
@@ -72678,7 +72684,7 @@
       <c r="N63" s="77"/>
     </row>
     <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="617" t="s">
+      <c r="A64" s="504" t="s">
         <v>868</v>
       </c>
       <c r="B64" s="78" t="s">
@@ -72702,7 +72708,7 @@
       <c r="N64" s="77"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="614" t="s">
+      <c r="A65" s="501" t="s">
         <v>2104</v>
       </c>
       <c r="B65" s="79"/>
@@ -72718,7 +72724,7 @@
       <c r="L65" s="77"/>
       <c r="M65" s="77"/>
     </row>
-    <row r="66" spans="1:14" s="616" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" s="503" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
       <c r="A66" s="448" t="s">
         <v>2115</v>
       </c>
@@ -72733,16 +72739,16 @@
       </c>
       <c r="E66" s="406"/>
       <c r="F66" s="432"/>
-      <c r="G66" s="615"/>
-      <c r="H66" s="615"/>
-      <c r="I66" s="615"/>
-      <c r="J66" s="615"/>
-      <c r="K66" s="615"/>
+      <c r="G66" s="502"/>
+      <c r="H66" s="502"/>
+      <c r="I66" s="502"/>
+      <c r="J66" s="502"/>
+      <c r="K66" s="502"/>
       <c r="L66" s="432"/>
       <c r="M66" s="406"/>
       <c r="N66" s="406"/>
     </row>
-    <row r="67" spans="1:14" s="616" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" s="503" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
       <c r="A67" s="448" t="s">
         <v>2116</v>
       </c>
@@ -72757,16 +72763,16 @@
       </c>
       <c r="E67" s="406"/>
       <c r="F67" s="432"/>
-      <c r="G67" s="615"/>
-      <c r="H67" s="615"/>
-      <c r="I67" s="615"/>
-      <c r="J67" s="615"/>
-      <c r="K67" s="615"/>
+      <c r="G67" s="502"/>
+      <c r="H67" s="502"/>
+      <c r="I67" s="502"/>
+      <c r="J67" s="502"/>
+      <c r="K67" s="502"/>
       <c r="L67" s="432"/>
       <c r="M67" s="406"/>
       <c r="N67" s="406"/>
     </row>
-    <row r="68" spans="1:14" s="616" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" s="503" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A68" s="448" t="s">
         <v>2117</v>
       </c>
@@ -72781,16 +72787,16 @@
       </c>
       <c r="E68" s="406"/>
       <c r="F68" s="432"/>
-      <c r="G68" s="615"/>
-      <c r="H68" s="615"/>
-      <c r="I68" s="615"/>
-      <c r="J68" s="615"/>
-      <c r="K68" s="615"/>
+      <c r="G68" s="502"/>
+      <c r="H68" s="502"/>
+      <c r="I68" s="502"/>
+      <c r="J68" s="502"/>
+      <c r="K68" s="502"/>
       <c r="L68" s="432"/>
       <c r="M68" s="406"/>
       <c r="N68" s="406"/>
     </row>
-    <row r="69" spans="1:14" s="616" customFormat="1" ht="140.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" s="503" customFormat="1" ht="140.25" x14ac:dyDescent="0.15">
       <c r="A69" s="448" t="s">
         <v>2118</v>
       </c>
@@ -72805,16 +72811,16 @@
       </c>
       <c r="E69" s="406"/>
       <c r="F69" s="432"/>
-      <c r="G69" s="615"/>
-      <c r="H69" s="615"/>
-      <c r="I69" s="615"/>
-      <c r="J69" s="615"/>
-      <c r="K69" s="615"/>
+      <c r="G69" s="502"/>
+      <c r="H69" s="502"/>
+      <c r="I69" s="502"/>
+      <c r="J69" s="502"/>
+      <c r="K69" s="502"/>
       <c r="L69" s="432"/>
       <c r="M69" s="406"/>
       <c r="N69" s="406"/>
     </row>
-    <row r="70" spans="1:14" s="616" customFormat="1" ht="165.75" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" s="503" customFormat="1" ht="165.75" x14ac:dyDescent="0.15">
       <c r="A70" s="448" t="s">
         <v>2119</v>
       </c>
@@ -72829,11 +72835,11 @@
       </c>
       <c r="E70" s="406"/>
       <c r="F70" s="432"/>
-      <c r="G70" s="615"/>
-      <c r="H70" s="615"/>
-      <c r="I70" s="615"/>
-      <c r="J70" s="615"/>
-      <c r="K70" s="615"/>
+      <c r="G70" s="502"/>
+      <c r="H70" s="502"/>
+      <c r="I70" s="502"/>
+      <c r="J70" s="502"/>
+      <c r="K70" s="502"/>
       <c r="L70" s="432"/>
       <c r="M70" s="406"/>
       <c r="N70" s="406"/>
